--- a/biology/Botanique/Marchesi_Antinori_Srl/Marchesi_Antinori_Srl.xlsx
+++ b/biology/Botanique/Marchesi_Antinori_Srl/Marchesi_Antinori_Srl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marchesi Antinori Srl est une société viticole italienne qui remonte à 1385. Dirigée par Piero Antinori, cette entreprise a été le fer de lance, au cours des années 1970, de la révolution du vin Super toscan. Ces vins rouges de Toscane, en particulier le Chianti classico, s'étaient mis volontairement hors du cadre législatif des appellations Denominazione di origine controllata en assemblant au sangiovese, cépage traditionnel, du cabernet sauvignon[réf. nécessaire].
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du Val di Sieve où elle possédait plusieurs châteaux au Moyen Âge, cette famille s'installa à Florence  lors des guerres entre Guelfes et Gibelins.
 En 1285, les Antinori se lancent dans le commerce de la soie et diffusent leur marchandise en Europe.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
